--- a/study1_2/data/output/study2_business_data_summary_yolo11.xlsx
+++ b/study1_2/data/output/study2_business_data_summary_yolo11.xlsx
@@ -1,156 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>All Busi mean</t>
-  </si>
-  <si>
-    <t>All Busi std</t>
-  </si>
-  <si>
-    <t>All Res mean</t>
-  </si>
-  <si>
-    <t>All Res std</t>
-  </si>
-  <si>
-    <t>Drink mean</t>
-  </si>
-  <si>
-    <t>Drink std</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>memory_score</t>
-  </si>
-  <si>
-    <t>review_count</t>
-  </si>
-  <si>
-    <t>categories_counts</t>
-  </si>
-  <si>
-    <t>star_std</t>
-  </si>
-  <si>
-    <t>contents_score_avg</t>
-  </si>
-  <si>
-    <t>beauty_score</t>
-  </si>
-  <si>
-    <t>sharpness_measure</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>person_total_count</t>
-  </si>
-  <si>
-    <t>person_exist</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>drink</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>inside</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -158,36 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,658 +408,842 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>All Busi mean</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>All Busi std</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>All Res mean</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>All Res std</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Drink mean</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Drink std</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.002</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0.002</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>0.001</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.024</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0.024</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>0.015</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.054</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.05</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>0.039</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.075</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0.074</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>0.06</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.116</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0.119</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>0.112</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.197</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.21</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>0.202</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.28</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.298</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>0.297</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.217</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0.199</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>0.236</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.035</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.025</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>0.039</v>
       </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.638</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.624</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.732</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>memory_score</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>0.759</v>
       </c>
-      <c r="C11">
+      <c r="C12" t="n">
         <v>0.081</v>
       </c>
-      <c r="D11">
+      <c r="D12" t="n">
         <v>0.755</v>
       </c>
-      <c r="E11">
+      <c r="E12" t="n">
         <v>0.078</v>
       </c>
-      <c r="F11">
+      <c r="F12" t="n">
         <v>0.745</v>
       </c>
-      <c r="G11">
+      <c r="G12" t="n">
         <v>0.08400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>review_count</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>129.125</v>
       </c>
-      <c r="C12">
+      <c r="C13" t="n">
         <v>247.435</v>
       </c>
-      <c r="D12">
+      <c r="D13" t="n">
         <v>149.193</v>
       </c>
-      <c r="E12">
+      <c r="E13" t="n">
         <v>270.711</v>
       </c>
-      <c r="F12">
+      <c r="F13" t="n">
         <v>151.944</v>
       </c>
-      <c r="G12">
+      <c r="G13" t="n">
         <v>262.571</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>photo_count</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6.093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10.603</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.231</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.459</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12.472</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>categories_counts</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>5.034</v>
       </c>
-      <c r="C13">
+      <c r="C15" t="n">
         <v>2.387</v>
       </c>
-      <c r="D13">
+      <c r="D15" t="n">
         <v>5.213</v>
       </c>
-      <c r="E13">
+      <c r="E15" t="n">
         <v>2.404</v>
       </c>
-      <c r="F13">
+      <c r="F15" t="n">
         <v>6.074</v>
       </c>
-      <c r="G13">
+      <c r="G15" t="n">
         <v>2.656</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>star_std</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>1.275</v>
       </c>
-      <c r="C14">
+      <c r="C16" t="n">
         <v>0.316</v>
       </c>
-      <c r="D14">
+      <c r="D16" t="n">
         <v>1.288</v>
       </c>
-      <c r="E14">
+      <c r="E16" t="n">
         <v>0.292</v>
       </c>
-      <c r="F14">
+      <c r="F16" t="n">
         <v>1.25</v>
       </c>
-      <c r="G14">
+      <c r="G16" t="n">
         <v>0.315</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>contents_score_avg</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>0.591</v>
       </c>
-      <c r="C15">
+      <c r="C17" t="n">
         <v>0.277</v>
       </c>
-      <c r="D15">
+      <c r="D17" t="n">
         <v>0.594</v>
       </c>
-      <c r="E15">
+      <c r="E17" t="n">
         <v>0.267</v>
       </c>
-      <c r="F15">
+      <c r="F17" t="n">
         <v>0.635</v>
       </c>
-      <c r="G15">
+      <c r="G17" t="n">
         <v>0.253</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>beauty_score</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>5.08</v>
       </c>
-      <c r="C16">
+      <c r="C18" t="n">
         <v>0.269</v>
       </c>
-      <c r="D16">
+      <c r="D18" t="n">
         <v>5.085</v>
       </c>
-      <c r="E16">
+      <c r="E18" t="n">
         <v>0.259</v>
       </c>
-      <c r="F16">
+      <c r="F18" t="n">
         <v>5.085</v>
       </c>
-      <c r="G16">
+      <c r="G18" t="n">
         <v>0.262</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sharpness_measure</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>1161.332</v>
       </c>
-      <c r="C17">
+      <c r="C19" t="n">
         <v>763.578</v>
       </c>
-      <c r="D17">
+      <c r="D19" t="n">
         <v>1138.629</v>
       </c>
-      <c r="E17">
+      <c r="E19" t="n">
         <v>733.753</v>
       </c>
-      <c r="F17">
+      <c r="F19" t="n">
         <v>1096.477</v>
       </c>
-      <c r="G17">
+      <c r="G19" t="n">
         <v>653.295</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>41.428</v>
       </c>
-      <c r="C18">
+      <c r="C20" t="n">
         <v>17.425</v>
       </c>
-      <c r="D18">
+      <c r="D20" t="n">
         <v>39.674</v>
       </c>
-      <c r="E18">
+      <c r="E20" t="n">
         <v>16.124</v>
       </c>
-      <c r="F18">
+      <c r="F20" t="n">
         <v>43.375</v>
       </c>
-      <c r="G18">
+      <c r="G20" t="n">
         <v>17.523</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>100.05</v>
       </c>
-      <c r="C19">
+      <c r="C21" t="n">
         <v>30.526</v>
       </c>
-      <c r="D19">
+      <c r="D21" t="n">
         <v>102.527</v>
       </c>
-      <c r="E19">
+      <c r="E21" t="n">
         <v>29.046</v>
       </c>
-      <c r="F19">
+      <c r="F21" t="n">
         <v>100.113</v>
       </c>
-      <c r="G19">
+      <c r="G21" t="n">
         <v>30.34</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>143.246</v>
       </c>
-      <c r="C20">
+      <c r="C22" t="n">
         <v>35.422</v>
       </c>
-      <c r="D20">
+      <c r="D22" t="n">
         <v>144.557</v>
       </c>
-      <c r="E20">
+      <c r="E22" t="n">
         <v>32.986</v>
       </c>
-      <c r="F20">
+      <c r="F22" t="n">
         <v>133.588</v>
       </c>
-      <c r="G20">
+      <c r="G22" t="n">
         <v>38.211</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>person_total_count</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>5.327</v>
       </c>
-      <c r="C21">
+      <c r="C23" t="n">
         <v>3.393</v>
       </c>
-      <c r="D21">
+      <c r="D23" t="n">
         <v>5.325</v>
       </c>
-      <c r="E21">
+      <c r="E23" t="n">
         <v>3.37</v>
       </c>
-      <c r="F21">
+      <c r="F23" t="n">
         <v>5.742</v>
       </c>
-      <c r="G21">
+      <c r="G23" t="n">
         <v>3.309</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>person_exist</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>0.596</v>
       </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>0.585</v>
       </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>0.6929999999999999</v>
       </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>0.831</v>
       </c>
-      <c r="C23">
+      <c r="C25" t="n">
         <v>0.218</v>
       </c>
-      <c r="D23">
+      <c r="D25" t="n">
         <v>0.843</v>
       </c>
-      <c r="E23">
+      <c r="E25" t="n">
         <v>0.208</v>
       </c>
-      <c r="F23">
+      <c r="F25" t="n">
         <v>0.798</v>
       </c>
-      <c r="G23">
+      <c r="G25" t="n">
         <v>0.223</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>0.533</v>
       </c>
-      <c r="C24">
+      <c r="C26" t="n">
         <v>0.401</v>
       </c>
-      <c r="D24">
+      <c r="D26" t="n">
         <v>0.597</v>
       </c>
-      <c r="E24">
+      <c r="E26" t="n">
         <v>0.38</v>
       </c>
-      <c r="F24">
+      <c r="F26" t="n">
         <v>0.389</v>
       </c>
-      <c r="G24">
+      <c r="G26" t="n">
         <v>0.37</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>drink</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>0.08</v>
       </c>
-      <c r="C25">
+      <c r="C27" t="n">
         <v>0.192</v>
       </c>
-      <c r="D25">
+      <c r="D27" t="n">
         <v>0.058</v>
       </c>
-      <c r="E25">
+      <c r="E27" t="n">
         <v>0.154</v>
       </c>
-      <c r="F25">
+      <c r="F27" t="n">
         <v>0.149</v>
       </c>
-      <c r="G25">
+      <c r="G27" t="n">
         <v>0.242</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>menu</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="C26">
+      <c r="C28" t="n">
         <v>0.07199999999999999</v>
       </c>
-      <c r="D26">
+      <c r="D28" t="n">
         <v>0.01</v>
       </c>
-      <c r="E26">
+      <c r="E28" t="n">
         <v>0.078</v>
       </c>
-      <c r="F26">
+      <c r="F28" t="n">
         <v>0.007</v>
       </c>
-      <c r="G26">
+      <c r="G28" t="n">
         <v>0.061</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>0.284</v>
       </c>
-      <c r="C27">
+      <c r="C29" t="n">
         <v>0.351</v>
       </c>
-      <c r="D27">
+      <c r="D29" t="n">
         <v>0.25</v>
       </c>
-      <c r="E27">
+      <c r="E29" t="n">
         <v>0.329</v>
       </c>
-      <c r="F27">
+      <c r="F29" t="n">
         <v>0.361</v>
       </c>
-      <c r="G27">
+      <c r="G29" t="n">
         <v>0.357</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>0.094</v>
       </c>
-      <c r="C28">
+      <c r="C30" t="n">
         <v>0.226</v>
       </c>
-      <c r="D28">
+      <c r="D30" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="E28">
+      <c r="E30" t="n">
         <v>0.21</v>
       </c>
-      <c r="F28">
+      <c r="F30" t="n">
         <v>0.094</v>
       </c>
-      <c r="G28">
+      <c r="G30" t="n">
         <v>0.21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>